--- a/整合包/201907/日常副本/5号材料/20190713[终焉誓约][任务脚本]【新版日常副本】【材料副本】5号副本--调整(倪祖伟)V1.0/说明文档/【终焉誓约】【流程对白】材料副本（5号本）V1.01.xlsx
+++ b/整合包/201907/日常副本/5号材料/20190713[终焉誓约][任务脚本]【新版日常副本】【材料副本】5号副本--调整(倪祖伟)V1.0/说明文档/【终焉誓约】【流程对白】材料副本（5号本）V1.01.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="137">
   <si>
     <t>版本</t>
   </si>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>材料采集——虫巢调研</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>进虫穴时触发</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -706,6 +702,35 @@
   <si>
     <t>听法布尔说，异虫会把大量富含魔力的东西伪装成虫卵，
 放在真虫卵旁边，让幼虫有充足的资源成长。神奇吧？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料采集——虫巢调研</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本目标</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>虫巢调研</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集虫卵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>边陲沙漠老牌驱虫剂。还是熟悉的配方，更是熟悉的味道。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具描述</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1187,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1346,6 +1371,63 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,15 +1438,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1400,53 +1473,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1783,10 +1811,10 @@
     </row>
     <row r="2" spans="1:4" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>5</v>
@@ -1861,11 +1889,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI57"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1892,41 +1920,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62" t="s">
+      <c r="A1" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1945,51 +1973,51 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="67" t="s">
+      <c r="R3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="67" t="s">
+      <c r="S3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="67" t="s">
+      <c r="U3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="69" t="s">
+      <c r="V3" s="85" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
@@ -2029,21 +2057,21 @@
       <c r="P4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="69"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="85"/>
     </row>
     <row r="5" spans="1:35" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="70" t="s">
+      <c r="B5" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -2072,7 +2100,7 @@
       </c>
       <c r="R5" s="23"/>
       <c r="S5" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T5" s="27"/>
       <c r="U5" s="28"/>
@@ -2081,9 +2109,9 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
@@ -2119,9 +2147,9 @@
       </c>
     </row>
     <row r="7" spans="1:35" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
@@ -2148,12 +2176,12 @@
       </c>
       <c r="R7" s="53"/>
       <c r="S7" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T7" s="58"/>
       <c r="U7" s="56"/>
       <c r="V7" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -2185,7 +2213,7 @@
         <v>113</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>115</v>
@@ -2221,27 +2249,27 @@
       </c>
     </row>
     <row r="10" spans="1:35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="29"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2250,13 +2278,13 @@
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="61" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="10"/>
@@ -2290,9 +2318,9 @@
       </c>
     </row>
     <row r="12" spans="1:35" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2324,9 +2352,9 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="94"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
@@ -2356,27 +2384,27 @@
       </c>
     </row>
     <row r="14" spans="1:35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="29"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -2392,13 +2420,13 @@
       <c r="AI14" s="2"/>
     </row>
     <row r="15" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="61" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="10"/>
@@ -2432,9 +2460,9 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="86"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="94"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
@@ -2466,27 +2494,27 @@
       </c>
     </row>
     <row r="17" spans="1:35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
       <c r="V17" s="29"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -2502,13 +2530,13 @@
       <c r="AI17" s="2"/>
     </row>
     <row r="18" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="82"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -2540,9 +2568,9 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="88"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="10" t="s">
         <v>29</v>
       </c>
@@ -2578,37 +2606,37 @@
       </c>
     </row>
     <row r="20" spans="1:35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
       <c r="V20" s="29"/>
     </row>
     <row r="21" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="12"/>
@@ -2631,18 +2659,18 @@
       </c>
       <c r="R21" s="34"/>
       <c r="S21" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T21" s="60"/>
       <c r="U21" s="28"/>
       <c r="V21" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="88"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="10" t="s">
         <v>29</v>
       </c>
@@ -2678,37 +2706,37 @@
       </c>
     </row>
     <row r="23" spans="1:35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
       <c r="V23" s="29"/>
     </row>
     <row r="24" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="82"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="12"/>
@@ -2740,9 +2768,9 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="88"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="10" t="s">
         <v>63</v>
       </c>
@@ -2765,18 +2793,18 @@
       </c>
       <c r="R25" s="12"/>
       <c r="S25" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T25" s="59"/>
       <c r="U25" s="28"/>
       <c r="V25" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="88"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="10" t="s">
         <v>74</v>
       </c>
@@ -2799,46 +2827,46 @@
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T26" s="60"/>
       <c r="U26" s="28"/>
       <c r="V26" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
       <c r="V27" s="29"/>
     </row>
     <row r="28" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="12" t="s">
         <v>29</v>
       </c>
@@ -2870,37 +2898,37 @@
       </c>
     </row>
     <row r="29" spans="1:35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
       <c r="V29" s="29"/>
     </row>
     <row r="30" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="10" t="s">
         <v>43</v>
       </c>
@@ -2932,37 +2960,37 @@
       </c>
     </row>
     <row r="31" spans="1:35" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
       <c r="V31" s="29"/>
     </row>
     <row r="32" spans="1:35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -2994,9 +3022,9 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="9" t="s">
         <v>29</v>
       </c>
@@ -3032,27 +3060,27 @@
       </c>
     </row>
     <row r="34" spans="1:22" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="65"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
       <c r="V34" s="29"/>
     </row>
     <row r="35" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3096,27 +3124,27 @@
       </c>
     </row>
     <row r="36" spans="1:22" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="77"/>
       <c r="V36" s="29"/>
     </row>
     <row r="37" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3151,36 +3179,36 @@
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T37" s="60"/>
       <c r="U37" s="28"/>
       <c r="V37" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:22" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
       <c r="V38" s="29"/>
     </row>
     <row r="39" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3215,36 +3243,36 @@
       </c>
       <c r="R39" s="12"/>
       <c r="S39" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T39" s="59"/>
       <c r="U39" s="28"/>
       <c r="V39" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="77"/>
       <c r="V40" s="29"/>
     </row>
     <row r="41" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -3279,36 +3307,36 @@
       </c>
       <c r="R41" s="12"/>
       <c r="S41" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T41" s="60"/>
       <c r="U41" s="28"/>
       <c r="V41" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66"/>
-      <c r="U42" s="66"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
       <c r="V42" s="29"/>
     </row>
     <row r="43" spans="1:22" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3339,11 +3367,11 @@
       <c r="V44" s="29"/>
     </row>
     <row r="45" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
       <c r="R45" s="2"/>
       <c r="T45" s="2"/>
       <c r="V45" s="29"/>
@@ -3427,10 +3455,10 @@
       <c r="V51" s="29"/>
     </row>
     <row r="52" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="84"/>
+      <c r="B52" s="64"/>
       <c r="T52" s="2"/>
       <c r="V52" s="29"/>
     </row>
@@ -3441,6 +3469,9 @@
       <c r="B53" s="20" t="s">
         <v>53</v>
       </c>
+      <c r="C53" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="T53" s="2"/>
       <c r="V53" s="29"/>
     </row>
@@ -3485,13 +3516,79 @@
       <c r="B57" s="22" t="s">
         <v>109</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="V57" s="29" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="59" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+    </row>
+    <row r="60" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="95"/>
+    </row>
+    <row r="61" spans="1:22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="95"/>
+    </row>
   </sheetData>
   <autoFilter ref="A2:V57"/>
-  <mergeCells count="46">
+  <mergeCells count="51">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A14:U14"/>
+    <mergeCell ref="A17:U17"/>
+    <mergeCell ref="A20:U20"/>
+    <mergeCell ref="A23:U23"/>
+    <mergeCell ref="A27:U27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A29:U29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A31:U31"/>
+    <mergeCell ref="A34:U34"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="A36:U36"/>
+    <mergeCell ref="A38:U38"/>
+    <mergeCell ref="A40:U40"/>
+    <mergeCell ref="A42:U42"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="A52:B52"/>
@@ -3508,39 +3605,9 @@
     <mergeCell ref="B18:C19"/>
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="A36:U36"/>
-    <mergeCell ref="A38:U38"/>
-    <mergeCell ref="A40:U40"/>
-    <mergeCell ref="A42:U42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A29:U29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A31:U31"/>
-    <mergeCell ref="A34:U34"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="A14:U14"/>
-    <mergeCell ref="A17:U17"/>
-    <mergeCell ref="A20:U20"/>
-    <mergeCell ref="A23:U23"/>
-    <mergeCell ref="A27:U27"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>